--- a/data/trans_bre/P2404-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2404-Edad-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2404-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P2404-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,96</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,35</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,76%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,31%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-75,66%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,0; -0,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,5; -1,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,01; -1,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,06; -0,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,11; -35,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,19; -37,41</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,03</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-92,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,91%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,56; -0,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,46; -4,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,85; 0,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,5; -3,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -76,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,39; 19,25</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-78,97%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-2,12; -0,3</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 0,49</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-3,42; -0,91</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,93; 128,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,58; -39,03</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -882,22 +882,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 0,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 0,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,76; -1,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 333,77</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,14%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,17; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 1,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,97%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,75%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-73,93%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; -0,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,62; -1,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,51; -1,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,44; -30,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,96; -65,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,95; -56,14</t>
         </is>
       </c>
     </row>
